--- a/data/trans_dic/Q23_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Provincia-trans_dic.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,74; 46,0</t>
+          <t>29,41; 46,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,04; 39,33</t>
+          <t>19,03; 39,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,4; 41,15</t>
+          <t>27,79; 41,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,8; 49,12</t>
+          <t>36,74; 48,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,6; 47,98</t>
+          <t>37,31; 48,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,6; 38,12</t>
+          <t>22,9; 39,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,34; 40,16</t>
+          <t>26,77; 40,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,7; 43,24</t>
+          <t>33,87; 43,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,28; 43,05</t>
+          <t>34,61; 43,22</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,26; 49,81</t>
+          <t>34,98; 49,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,69; 41,2</t>
+          <t>28,49; 41,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,42; 36,71</t>
+          <t>18,68; 35,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 35,83</t>
+          <t>17,8; 35,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,39; 42,56</t>
+          <t>30,96; 42,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,27; 37,14</t>
+          <t>26,39; 37,1</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,67; 36,97</t>
+          <t>25,12; 37,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,15; 42,93</t>
+          <t>33,73; 43,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,87; 28,91</t>
+          <t>14,98; 28,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,48; 31,76</t>
+          <t>20,24; 31,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,29; 31,78</t>
+          <t>22,32; 31,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,15; 36,99</t>
+          <t>29,75; 36,85</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,81; 30,17</t>
+          <t>14,96; 30,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,28; 50,47</t>
+          <t>32,89; 49,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,14; 39,73</t>
+          <t>19,16; 39,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,12; 43,08</t>
+          <t>24,78; 43,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,05; 31,04</t>
+          <t>18,54; 32,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,78; 44,32</t>
+          <t>31,72; 44,53</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,53; 48,91</t>
+          <t>32,18; 47,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 44,72</t>
+          <t>30,12; 45,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,17; 42,72</t>
+          <t>22,29; 43,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,35; 40,7</t>
+          <t>20,28; 39,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,0; 43,94</t>
+          <t>31,23; 43,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,71; 40,89</t>
+          <t>29,14; 41,18</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,16; 41,79</t>
+          <t>30,43; 42,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,51; 40,66</t>
+          <t>31,5; 40,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,84; 34,92</t>
+          <t>21,94; 34,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,14; 33,65</t>
+          <t>22,73; 34,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,85; 36,63</t>
+          <t>28,85; 36,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,41; 36,91</t>
+          <t>29,05; 36,6</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,82; 37,28</t>
+          <t>27,92; 37,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25,16; 34,14</t>
+          <t>24,74; 33,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,67; 32,83</t>
+          <t>20,85; 32,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,86; 32,15</t>
+          <t>20,42; 32,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,55; 34,13</t>
+          <t>26,38; 33,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,04; 31,79</t>
+          <t>24,74; 31,74</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,59; 38,04</t>
+          <t>33,64; 38,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>34,43; 38,61</t>
+          <t>34,5; 38,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>24,43; 29,69</t>
+          <t>24,04; 29,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,69; 30,82</t>
+          <t>25,66; 30,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,92; 34,28</t>
+          <t>30,79; 34,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,73; 34,99</t>
+          <t>31,44; 35,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Provincia-trans_dic.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,41; 46,01</t>
+          <t>29,78; 46,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,03; 39,72</t>
+          <t>18,28; 40,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,79; 41,12</t>
+          <t>27,65; 40,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,74; 48,53</t>
+          <t>36,97; 48,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,31; 48,63</t>
+          <t>37,02; 48,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,9; 39,36</t>
+          <t>22,1; 37,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,77; 40,51</t>
+          <t>26,57; 40,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,87; 43,81</t>
+          <t>33,93; 43,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,61; 43,22</t>
+          <t>34,3; 43,24</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,98; 49,85</t>
+          <t>34,95; 49,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,49; 41,91</t>
+          <t>28,37; 41,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,68; 35,53</t>
+          <t>18,61; 36,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,8; 35,16</t>
+          <t>18,24; 34,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,96; 42,79</t>
+          <t>30,5; 42,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,39; 37,1</t>
+          <t>26,71; 36,97</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,12; 37,69</t>
+          <t>24,81; 37,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,73; 43,63</t>
+          <t>33,4; 42,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,98; 28,92</t>
+          <t>15,52; 29,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,24; 31,66</t>
+          <t>21,35; 32,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,32; 31,8</t>
+          <t>22,27; 31,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,75; 36,85</t>
+          <t>29,5; 37,24</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,96; 30,18</t>
+          <t>14,46; 30,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,89; 49,86</t>
+          <t>33,13; 49,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,16; 39,23</t>
+          <t>18,3; 39,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,78; 43,97</t>
+          <t>23,74; 43,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,54; 32,13</t>
+          <t>18,24; 31,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,72; 44,53</t>
+          <t>31,18; 43,86</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,18; 47,83</t>
+          <t>32,11; 48,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 45,37</t>
+          <t>29,25; 44,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,29; 43,41</t>
+          <t>22,18; 41,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,28; 39,45</t>
+          <t>20,34; 39,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,23; 43,24</t>
+          <t>30,52; 43,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,14; 41,18</t>
+          <t>28,79; 41,08</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,43; 42,13</t>
+          <t>30,73; 41,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,5; 40,84</t>
+          <t>31,28; 40,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,94; 34,51</t>
+          <t>22,1; 35,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,73; 34,34</t>
+          <t>22,54; 33,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,85; 36,88</t>
+          <t>29,06; 37,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,05; 36,6</t>
+          <t>29,21; 36,81</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,92; 37,25</t>
+          <t>27,84; 37,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24,74; 33,72</t>
+          <t>24,83; 33,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,85; 32,19</t>
+          <t>20,76; 32,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,42; 32,15</t>
+          <t>20,83; 31,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,38; 33,66</t>
+          <t>26,51; 34,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,74; 31,74</t>
+          <t>25,06; 32,06</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,64; 38,21</t>
+          <t>33,77; 38,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>34,5; 38,7</t>
+          <t>34,34; 38,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>24,04; 29,91</t>
+          <t>24,45; 30,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,66; 30,92</t>
+          <t>25,64; 30,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,79; 34,48</t>
+          <t>30,89; 34,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,44; 35,12</t>
+          <t>31,65; 35,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,78; 46,49</t>
+          <t>29,74; 46,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,28; 40,34</t>
+          <t>19,04; 39,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,65; 40,62</t>
+          <t>27,4; 41,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,97; 48,98</t>
+          <t>36,8; 49,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,02; 48,02</t>
+          <t>36,6; 47,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,1; 37,34</t>
+          <t>22,6; 38,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,57; 40,3</t>
+          <t>26,34; 40,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,93; 43,26</t>
+          <t>33,7; 43,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,3; 43,24</t>
+          <t>34,28; 43,05</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,95; 49,71</t>
+          <t>35,26; 49,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,37; 41,86</t>
+          <t>27,69; 41,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,61; 36,12</t>
+          <t>18,42; 36,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,24; 34,69</t>
+          <t>18,31; 35,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,5; 42,29</t>
+          <t>31,39; 42,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,71; 36,97</t>
+          <t>26,27; 37,14</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,81; 37,04</t>
+          <t>24,67; 36,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,4; 42,97</t>
+          <t>33,15; 42,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,52; 29,26</t>
+          <t>14,87; 28,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,35; 32,42</t>
+          <t>20,48; 31,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,27; 31,72</t>
+          <t>22,29; 31,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,5; 37,24</t>
+          <t>29,15; 36,99</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,46; 30,27</t>
+          <t>14,81; 30,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,13; 49,99</t>
+          <t>33,28; 50,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,3; 39,8</t>
+          <t>18,14; 39,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,74; 43,28</t>
+          <t>24,12; 43,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,24; 31,29</t>
+          <t>18,05; 31,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,18; 43,86</t>
+          <t>31,78; 44,32</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,11; 48,51</t>
+          <t>32,53; 48,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,25; 44,35</t>
+          <t>30,12; 44,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,18; 41,92</t>
+          <t>22,17; 42,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,34; 39,85</t>
+          <t>20,35; 40,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,52; 43,39</t>
+          <t>31,0; 43,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,79; 41,08</t>
+          <t>28,71; 40,89</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,73; 41,9</t>
+          <t>31,16; 41,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,28; 40,59</t>
+          <t>31,51; 40,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,1; 35,19</t>
+          <t>21,84; 34,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,54; 33,87</t>
+          <t>22,14; 33,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,06; 37,5</t>
+          <t>27,85; 36,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,21; 36,81</t>
+          <t>29,41; 36,91</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,84; 37,05</t>
+          <t>27,82; 37,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24,83; 33,72</t>
+          <t>25,16; 34,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,76; 32,18</t>
+          <t>20,67; 32,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,83; 31,83</t>
+          <t>20,86; 32,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,51; 34,06</t>
+          <t>26,55; 34,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,06; 32,06</t>
+          <t>25,04; 31,79</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,77; 38,18</t>
+          <t>33,59; 38,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>34,34; 38,68</t>
+          <t>34,43; 38,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>24,45; 30,05</t>
+          <t>24,43; 29,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,64; 30,75</t>
+          <t>25,69; 30,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,89; 34,29</t>
+          <t>30,92; 34,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,65; 35,22</t>
+          <t>31,73; 34,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Provincia-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +523,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -606,27 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>58,96%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>44,38%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>28,1%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34,16%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46,84%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>33,97%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39,12%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>56,17%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35,83%</t>
         </is>
       </c>
     </row>
@@ -644,27 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,91; 49,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>42,6; 73,2</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33,62; 54,27</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>19,04; 39,33</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25,54; 44,16</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20,59; 71,27</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 29,43</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>27,4; 41,15</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>33,96; 44,71</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>42,76; 69,95</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>29,65; 44,8</t>
         </is>
       </c>
     </row>
@@ -691,22 +806,52 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>42,18%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33,32%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>29,39%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>32,99%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>85,78%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26,62%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>38,55%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>38,76%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>56,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30,63%</t>
         </is>
       </c>
     </row>
@@ -729,22 +874,52 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>20,33; 70,63</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26,05; 40,73</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>22,6; 38,12</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>26,34; 40,16</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>42,86; 100,0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21,07; 33,61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>33,7; 43,24</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>34,28; 43,05</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32,45; 76,72</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25,54; 35,41</t>
         </is>
       </c>
     </row>
@@ -771,22 +946,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>39,13%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50,04%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>26,61%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>26,26%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36,29%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23,85%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>36,69%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>31,53%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>38,58%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38,47%</t>
         </is>
       </c>
     </row>
@@ -809,22 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>14,92; 67,42</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42,28; 57,57</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>18,42; 36,71</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>18,31; 35,83</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17,45; 30,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>31,39; 42,56</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>26,27; 37,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,56; 66,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32,75; 44,21</t>
         </is>
       </c>
     </row>
@@ -846,27 +1081,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>39,52%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23,29%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>21,57%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>25,72%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55,37%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>26,99%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>33,35%</t>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>43,69%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22,95%</t>
         </is>
       </c>
     </row>
@@ -884,27 +1149,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,15; 42,93</t>
+          <t>28,01; 41,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>24,83; 55,42</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 30,28</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>14,87; 28,91</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>20,48; 31,76</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12,5; 25,94</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26,73; 80,33</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16,38; 31,05</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>22,29; 31,78</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>29,15; 36,99</t>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23,29; 33,49</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30,57; 58,12</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 28,57</t>
         </is>
       </c>
     </row>
@@ -931,22 +1226,52 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>61,18%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24,28%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>27,89%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>32,73%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>53,5%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25,86%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>24,31%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>37,74%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>59,03%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24,98%</t>
         </is>
       </c>
     </row>
@@ -969,22 +1294,52 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>20,17; 100,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15,95; 34,29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>18,14; 39,73</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>24,12; 43,08</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,07; 36,32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>18,05; 31,04</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>31,78; 44,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 87,17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,35; 31,46</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1366,52 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>36,62%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>41,91%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>31,53%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>29,5%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33,38%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31,1%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>37,13%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>34,64%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>36,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>38,35%</t>
         </is>
       </c>
     </row>
@@ -1049,22 +1434,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>14,6; 65,46</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33,67; 49,81</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>22,17; 42,72</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>20,35; 40,7</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21,82; 41,95</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>31,0; 43,94</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>28,71; 40,89</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>17,64; 59,77</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>32,27; 44,73</t>
         </is>
       </c>
     </row>
@@ -1091,22 +1506,52 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>43,47%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>37,23%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>27,86%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>28,11%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30,72%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28,22%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>32,82%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>32,96%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>38,42%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>33,11%</t>
         </is>
       </c>
     </row>
@@ -1129,22 +1574,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>26,81; 63,07</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>30,7; 43,71</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>21,84; 34,92</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>22,14; 33,65</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12,6; 52,83</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22,79; 33,93</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>27,85; 36,63</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>29,41; 36,91</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25,7; 52,04</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>28,71; 37,47</t>
         </is>
       </c>
     </row>
@@ -1171,22 +1646,52 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>69,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>26,1%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>26,18%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>39,15%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>30,14%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>28,15%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>63,81%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
         </is>
       </c>
     </row>
@@ -1209,22 +1714,52 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>50,23; 82,84</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 25,71</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>20,67; 32,83</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>20,86; 32,15</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12,27; 84,17</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 20,7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>26,55; 34,13</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>25,04; 31,79</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>48,76; 77,76</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 22,29</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1786,52 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>50,31%</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>27,03%</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>28,24%</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>45,63%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>32,63%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>33,31%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>49,07%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>27,35%</t>
         </is>
       </c>
     </row>
@@ -1289,22 +1854,52 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>43,33; 57,1</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17,39; 35,26</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
           <t>24,43; 29,69</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>25,69; 30,82</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>33,85; 57,03</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 26,69</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>30,92; 34,28</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>31,73; 34,99</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>42,75; 54,76</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>19,6; 30,69</t>
         </is>
       </c>
     </row>
@@ -1318,16 +1913,16 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_dic/Q23_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -666,7 +667,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>58,96%</t>
+          <t>52,44%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -686,7 +687,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,74; 46,0</t>
+          <t>30,38; 46,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,91; 49,39</t>
+          <t>35,56; 49,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,6; 73,2</t>
+          <t>44,42; 60,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,62; 54,27</t>
+          <t>35,14; 54,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,04; 39,33</t>
+          <t>18,73; 39,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,54; 44,16</t>
+          <t>25,23; 43,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,59; 71,27</t>
+          <t>26,56; 44,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 29,43</t>
+          <t>14,87; 29,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,4; 41,15</t>
+          <t>27,8; 41,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,96; 44,71</t>
+          <t>33,49; 44,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42,76; 69,95</t>
+          <t>38,97; 50,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,65; 44,8</t>
+          <t>29,11; 42,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -806,7 +807,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,18%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -826,7 +827,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>85,78%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -846,7 +847,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>56,45%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,8; 49,12</t>
+          <t>37,31; 48,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,6; 47,98</t>
+          <t>36,54; 48,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,33; 70,63</t>
+          <t>26,93; 38,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,05; 40,73</t>
+          <t>26,18; 41,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,6; 38,12</t>
+          <t>22,62; 37,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,34; 40,16</t>
+          <t>26,23; 39,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,86; 100,0</t>
+          <t>20,42; 34,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,07; 33,61</t>
+          <t>20,46; 33,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,7; 43,24</t>
+          <t>33,58; 43,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,28; 43,05</t>
+          <t>34,08; 43,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,45; 76,72</t>
+          <t>26,03; 34,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,54; 35,41</t>
+          <t>26,0; 36,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -966,7 +967,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -986,7 +987,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,26; 49,81</t>
+          <t>34,7; 49,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,69; 41,2</t>
+          <t>27,89; 41,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 67,42</t>
+          <t>24,24; 39,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,28; 57,57</t>
+          <t>42,17; 57,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,42; 36,71</t>
+          <t>18,71; 36,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 35,83</t>
+          <t>18,35; 34,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>20,03; 37,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,45; 30,8</t>
+          <t>17,37; 31,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,39; 42,56</t>
+          <t>30,83; 42,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,27; 37,14</t>
+          <t>26,33; 36,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,56; 66,24</t>
+          <t>24,98; 35,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,75; 44,21</t>
+          <t>32,87; 43,85</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1126,7 +1127,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>35,02%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,67; 36,97</t>
+          <t>24,39; 37,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,01; 41,95</t>
+          <t>27,74; 42,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,83; 55,42</t>
+          <t>34,26; 47,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,99; 30,28</t>
+          <t>16,98; 30,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,87; 28,91</t>
+          <t>15,24; 29,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 25,94</t>
+          <t>12,23; 25,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,73; 80,33</t>
+          <t>20,24; 34,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,38; 31,05</t>
+          <t>16,56; 31,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,29; 31,78</t>
+          <t>22,15; 31,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,29; 33,49</t>
+          <t>23,25; 33,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,57; 58,12</t>
+          <t>30,09; 40,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,51; 28,57</t>
+          <t>18,4; 28,37</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1227,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1246,7 +1247,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,5%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1266,7 +1267,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>59,03%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,81; 30,17</t>
+          <t>14,29; 31,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,28; 50,47</t>
+          <t>32,99; 49,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,17; 100,0</t>
+          <t>23,87; 40,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,95; 34,29</t>
+          <t>16,22; 33,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,14; 39,73</t>
+          <t>17,81; 39,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,12; 43,08</t>
+          <t>23,78; 43,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>18,49; 38,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,07; 36,32</t>
+          <t>17,39; 37,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,05; 31,04</t>
+          <t>18,08; 31,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,78; 44,32</t>
+          <t>30,84; 44,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,38; 87,17</t>
+          <t>23,78; 37,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,35; 31,46</t>
+          <t>18,84; 32,55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1366,7 +1367,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1386,7 +1387,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1406,7 +1407,7 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,53; 48,91</t>
+          <t>32,83; 48,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 44,72</t>
+          <t>29,93; 45,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,6; 65,46</t>
+          <t>21,2; 37,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,67; 49,81</t>
+          <t>34,95; 50,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,17; 42,72</t>
+          <t>22,61; 43,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,35; 40,7</t>
+          <t>20,67; 39,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>8,04; 22,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,82; 41,95</t>
+          <t>22,05; 41,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>31,0; 43,94</t>
+          <t>31,38; 44,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28,71; 40,89</t>
+          <t>28,76; 40,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,64; 59,77</t>
+          <t>17,11; 28,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,27; 44,73</t>
+          <t>31,87; 44,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1506,7 +1507,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1526,7 +1527,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1546,7 +1547,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,16; 41,79</t>
+          <t>30,21; 41,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,51; 40,66</t>
+          <t>31,13; 40,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,81; 63,07</t>
+          <t>27,73; 39,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,7; 43,71</t>
+          <t>30,8; 43,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,84; 34,92</t>
+          <t>21,05; 34,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,14; 33,65</t>
+          <t>22,96; 34,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,6; 52,83</t>
+          <t>18,19; 29,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,79; 33,93</t>
+          <t>22,97; 34,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,85; 36,63</t>
+          <t>28,46; 36,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,41; 36,91</t>
+          <t>29,64; 36,92</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>25,7; 52,04</t>
+          <t>24,8; 32,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>28,71; 37,47</t>
+          <t>29,26; 37,91</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1647,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>69,0%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1666,7 +1667,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1686,7 +1687,7 @@
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>63,81%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,82; 37,28</t>
+          <t>27,99; 36,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25,16; 34,14</t>
+          <t>24,98; 34,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50,23; 82,84</t>
+          <t>32,25; 43,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,27; 25,71</t>
+          <t>3,58; 25,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,67; 32,83</t>
+          <t>20,33; 32,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,86; 32,15</t>
+          <t>20,63; 32,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,27; 84,17</t>
+          <t>21,23; 32,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,4; 20,7</t>
+          <t>10,15; 20,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,55; 34,13</t>
+          <t>26,75; 33,74</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>25,04; 31,79</t>
+          <t>24,64; 31,86</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>48,76; 77,76</t>
+          <t>29,14; 36,56</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,57; 22,29</t>
+          <t>4,67; 22,12</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1787,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1806,7 +1807,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -1826,7 +1827,7 @@
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,59; 38,04</t>
+          <t>33,5; 38,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>34,43; 38,61</t>
+          <t>34,25; 38,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>43,33; 57,1</t>
+          <t>33,91; 38,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,39; 35,26</t>
+          <t>17,86; 34,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>24,43; 29,69</t>
+          <t>24,42; 30,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,69; 30,82</t>
+          <t>25,76; 30,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,85; 57,03</t>
+          <t>23,54; 28,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>21,78; 26,69</t>
+          <t>21,81; 26,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,92; 34,28</t>
+          <t>30,78; 34,39</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>31,73; 34,99</t>
+          <t>31,55; 34,78</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>42,75; 54,76</t>
+          <t>29,99; 33,7</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>19,6; 30,69</t>
+          <t>19,82; 30,86</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>52205</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>85957</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>92254</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>58532</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>23371</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43969</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43398</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16360</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>75576</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>129926</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>135652</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>74892</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>42310; 64461</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>72325; 101373</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>78149; 105979</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>46347; 72532</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15579; 32692</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32485; 56339</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33592; 55650</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11469; 22645</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>61843; 91225</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>111238; 149174</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>117856; 154123</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>60846; 89826</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>120740</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>140136</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>90730</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>81638</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>41010</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>69596</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47464</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43710</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>161750</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>209732</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>138194</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>125348</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>104463; 136337</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>120602; 158650</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>75782; 107783</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>64143; 102828</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>31569; 52288</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>55335; 83739</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>35668; 60435</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33591; 55240</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>140871; 181816</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>184402; 233364</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>118707; 157540</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>106382; 147490</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>75911</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>72852</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>49063</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>69658</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>26717</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31694</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29484</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26258</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>102629</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>104546</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>78547</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>95916</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>62229; 89005</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>58813; 87518</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>37753; 61160</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>58713; 80705</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18787; 36307</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22149; 42028</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21105; 39049</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19128; 34560</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>86243; 118847</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>87304; 122308</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>65220; 92910</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>81957; 109320</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>64523</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>77719</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>94412</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>39110</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>29236</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27077</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>41890</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28906</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>93759</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>104796</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>136303</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>68016</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>51665; 78625</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>62200; 94396</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>79715; 110450</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28522; 51001</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20656; 39323</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18046; 37988</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>31677; 54624</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21257; 40281</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>76961; 110697</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>86424; 124182</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>117109; 156120</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>54516; 84051</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22904</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>58143</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>37157</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11796</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21620</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30203</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20158</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9872</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>44525</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>88346</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>57315</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21668</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15105; 32812</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>46793; 70397</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>27632; 47313</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7879; 16439</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13805; 30303</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>21946; 39869</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13319; 27794</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6641; 14342</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>33124; 57130</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>72189; 104465</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>44649; 70678</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16349; 28243</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>63115</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>61887</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>38045</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>50480</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>24836</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>25402</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11988</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18382</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>87951</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>87289</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>50033</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>68862</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>51895; 76354</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>49651; 75081</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>28367; 49533</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>42089; 61044</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>17813; 34161</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>17797; 34166</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7078; 20223</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>13031; 24460</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>74323; 104925</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>72478; 102369</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>37968; 62806</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>57224; 79825</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>109230</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>157340</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>103383</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>108590</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>51930</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>77914</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>57913</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>69129</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>161160</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>235254</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>161295</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>177719</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>92036; 125257</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>135881; 178196</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>86810; 122447</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>89829; 127971</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>39242; 64230</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>63645; 95222</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>45304; 72713</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>56268; 84138</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>139725; 180957</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>211514; 263481</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>139435; 184178</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>157027; 203460</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>133050</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>121456</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>136157</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>68164</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>59515</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>70569</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>71022</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>22442</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>192565</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>192025</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>207179</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>90607</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>114994; 151580</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>103045; 140908</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>116217; 155119</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>18782; 136286</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>46357; 73821</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>55607; 86665</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>57822; 87447</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>15396; 30942</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>170902; 215529</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>168076; 217283</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>184368; 231315</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>31617; 149666</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>641678</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>775491</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>641201</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>487969</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>278236</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>376424</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>323318</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>235060</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>919915</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1151915</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>964519</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>723029</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>599485; 680836</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>727952; 820042</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>599806; 680315</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>298145; 583493</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>251338; 309212</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>343406; 410029</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>292931; 355893</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>212404; 259085</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>867773; 969376</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1091008; 1202667</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>903662; 1015425</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>523840; 815602</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>